--- a/Work Packages/WP1 Management/Risks/PaNOSC Risk Register.xlsx
+++ b/Work Packages/WP1 Management/Risks/PaNOSC Risk Register.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Risks" sheetId="1" r:id="rId1"/>
+    <sheet name="Drop down lists" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="94">
   <si>
     <t>#</t>
   </si>
@@ -271,27 +272,41 @@
     <t>The project’s communications strategy will detail the target groups to be addressed, as well as the plan to make a mapping of key audiences at the beginning of and throughout the project</t>
   </si>
   <si>
-    <t>The WP leader and the partnership will put efforts in keeping regular contacts with other clusters to ensure there is a complete and homogeneous communications of results</t>
-  </si>
-  <si>
-    <t>The yearly communication plans annexed to the strategy will include key actions and events of the community, to avoid double efforts, and to ensure that common objectives are met and main outcomes are communicated</t>
+    <t>Information from the Proposal</t>
+  </si>
+  <si>
+    <t>New Probability</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Unlikely</t>
+  </si>
+  <si>
+    <t>Very likely</t>
+  </si>
+  <si>
+    <t>The WP leader and the partnership will put efforts in keeping regular contacts with other clusters to ensure there is a complete and homogeneous communications of results. The yearly communication plans annexed to the strategy will include key actions and events of the community, to avoid double efforts, and to ensure that common objectives are met and main outcomes are communicated</t>
+  </si>
+  <si>
+    <t>Information from Project stage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -303,8 +318,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,24 +358,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF93C47D"/>
+        <fgColor rgb="FFFFFFAB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE06666"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2C0C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -338,76 +389,66 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="12">
     <dxf>
       <font>
         <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -434,6 +475,87 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -455,6 +577,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF2C0C0"/>
+      <color rgb="FFFFFFAB"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -467,17 +595,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:L33" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:L33"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:M34" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A2:M34"/>
+  <tableColumns count="13">
     <tableColumn id="1" name="#"/>
     <tableColumn id="2" name="Risk Name"/>
-    <tableColumn id="3" name="Risk Description" dataDxfId="2"/>
+    <tableColumn id="3" name="Risk Description" dataDxfId="11"/>
     <tableColumn id="4" name="WP involved"/>
     <tableColumn id="5" name="Probability"/>
-    <tableColumn id="6" name="Impact"/>
-    <tableColumn id="7" name="Assessment"/>
     <tableColumn id="8" name="Initial mitigation measure" dataDxfId="0"/>
+    <tableColumn id="15" name="New Probability" dataDxfId="1"/>
+    <tableColumn id="14" name="Impact" dataDxfId="10"/>
+    <tableColumn id="13" name="Assessment" dataDxfId="9">
+      <calculatedColumnFormula>IF(G3="Unlikely",IF(H3="Minor","Low","Medium"),
+IF(G3="Moderate",IF(H3="Major","High","Medium"),
+IF(G3="Very Likely",IF(H3="Minor","Medium",
+IF(H3="Moderate","High","Very High")))))</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="9" name="Comments"/>
     <tableColumn id="10" name="Owner"/>
     <tableColumn id="11" name="Owner Comments"/>
@@ -774,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,595 +919,996 @@
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" customWidth="1"/>
     <col min="3" max="3" width="35.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="35.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="35.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" customWidth="1"/>
-    <col min="11" max="11" width="35.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="13" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="35.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" customWidth="1"/>
+    <col min="12" max="12" width="35.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="J2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M2" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="3" spans="1:13" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>54</v>
+      <c r="E3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f t="shared" ref="I3:I34" si="0">IF(G3="Unlikely",IF(H3="Minor","Low","Medium"),
+IF(G3="Moderate",IF(H3="Major","High","Medium"),
+IF(G3="Very Likely",IF(H3="Minor","Medium",
+IF(H3="Moderate","High","Very High")))))</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="F5" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="G5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="F7" s="10" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="G7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="F9" s="10" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="G9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D10">
         <v>4</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="F11" s="10" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="G11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>5</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="F12" s="10" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="G12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="F13" s="10" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="G13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="F14" s="10" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="G14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>5</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="F15" s="10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="G15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D16">
         <v>6</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>53</v>
       </c>
+      <c r="F16" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="H16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="G17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D17">
-        <v>7</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="D18">
         <v>7</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>54</v>
       </c>
+      <c r="F18" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="H18" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="I18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="84.75" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>51</v>
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19">
         <v>7</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="I19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="39" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20">
         <v>7</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="F21" s="10" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="G21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>8</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="F22" s="10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="G22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="F23" s="10" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="G23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="F24" s="10" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="G24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="84.75" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D24">
-        <v>9</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="D25">
         <v>9</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>53</v>
+      <c r="E25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="I25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26">
         <v>9</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="5" t="s">
         <v>53</v>
       </c>
+      <c r="F26" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="H26" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="77.25" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="I26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="132.75" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>26</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="F28" s="10"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>32</v>
       </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:L1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I2:I1048576">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"Very High"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!$D$3:$D$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>G3:G34</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!$B$3:$B$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>H3:H34</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Work Packages/WP1 Management/Risks/PaNOSC Risk Register.xlsx
+++ b/Work Packages/WP1 Management/Risks/PaNOSC Risk Register.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="102">
   <si>
     <t>#</t>
   </si>
@@ -297,6 +297,30 @@
   </si>
   <si>
     <t>Information from Project stage</t>
+  </si>
+  <si>
+    <t>Andy Gotz</t>
+  </si>
+  <si>
+    <t>Tobias Richter</t>
+  </si>
+  <si>
+    <t>Hans Fangohr</t>
+  </si>
+  <si>
+    <t>Carsten Fortmann-Grote</t>
+  </si>
+  <si>
+    <t>Jean-François Perrin</t>
+  </si>
+  <si>
+    <t>Roberto Pugliese</t>
+  </si>
+  <si>
+    <t>Thomas Rod</t>
+  </si>
+  <si>
+    <t>Nicoletta Carboni</t>
   </si>
 </sst>
 </file>
@@ -402,9 +426,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -414,9 +435,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -424,104 +442,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <b val="0"/>
@@ -573,7 +504,86 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -595,18 +605,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:M34" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:M34" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A2:M34"/>
   <tableColumns count="13">
     <tableColumn id="1" name="#"/>
     <tableColumn id="2" name="Risk Name"/>
-    <tableColumn id="3" name="Risk Description" dataDxfId="11"/>
+    <tableColumn id="3" name="Risk Description" dataDxfId="4"/>
     <tableColumn id="4" name="WP involved"/>
     <tableColumn id="5" name="Probability"/>
-    <tableColumn id="8" name="Initial mitigation measure" dataDxfId="0"/>
-    <tableColumn id="15" name="New Probability" dataDxfId="1"/>
-    <tableColumn id="14" name="Impact" dataDxfId="10"/>
-    <tableColumn id="13" name="Assessment" dataDxfId="9">
+    <tableColumn id="8" name="Initial mitigation measure" dataDxfId="3"/>
+    <tableColumn id="15" name="New Probability" dataDxfId="2"/>
+    <tableColumn id="14" name="Impact" dataDxfId="1"/>
+    <tableColumn id="13" name="Assessment" dataDxfId="0">
       <calculatedColumnFormula>IF(G3="Unlikely",IF(H3="Minor","Low","Medium"),
 IF(G3="Moderate",IF(H3="Major","High","Medium"),
 IF(G3="Very Likely",IF(H3="Minor","Medium",
@@ -911,7 +921,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,7 +931,7 @@
     <col min="3" max="3" width="35.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
     <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" style="9" customWidth="1"/>
     <col min="7" max="7" width="13" style="3" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.85546875" style="3" customWidth="1"/>
@@ -932,61 +942,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="8" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-    </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+    </row>
+    <row r="2" spans="1:13" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1003,24 +1013,20 @@
       <c r="D3" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" s="2" t="str">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="b">
         <f t="shared" ref="I3:I34" si="0">IF(G3="Unlikely",IF(H3="Minor","Low","Medium"),
 IF(G3="Moderate",IF(H3="Major","High","Medium"),
 IF(G3="Very Likely",IF(H3="Minor","Medium",
 IF(H3="Moderate","High","Very High")))))</f>
-        <v>Medium</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
@@ -1036,21 +1042,17 @@
       <c r="D4" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Medium</v>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
@@ -1066,21 +1068,17 @@
       <c r="D5" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>High</v>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
@@ -1096,21 +1094,20 @@
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Medium</v>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
@@ -1126,21 +1123,20 @@
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Medium</v>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
@@ -1156,21 +1152,20 @@
       <c r="D8">
         <v>3</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Medium</v>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="60.75" x14ac:dyDescent="0.25">
@@ -1186,21 +1181,20 @@
       <c r="D9">
         <v>3</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Medium</v>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
@@ -1216,21 +1210,20 @@
       <c r="D10">
         <v>4</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Medium</v>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="60.75" x14ac:dyDescent="0.25">
@@ -1246,21 +1239,20 @@
       <c r="D11">
         <v>4</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Medium</v>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
@@ -1276,21 +1268,20 @@
       <c r="D12">
         <v>5</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Medium</v>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
@@ -1306,21 +1297,17 @@
       <c r="D13" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Medium</v>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
@@ -1336,21 +1323,17 @@
       <c r="D14" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Medium</v>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="39" x14ac:dyDescent="0.25">
@@ -1366,21 +1349,20 @@
       <c r="D15">
         <v>5</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Medium</v>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1396,24 +1378,23 @@
       <c r="D16">
         <v>6</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Medium</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1426,24 +1407,23 @@
       <c r="D17">
         <v>6</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Medium</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1456,24 +1436,23 @@
       <c r="D18">
         <v>7</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Medium</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="84.75" x14ac:dyDescent="0.25">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="84.75" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1486,24 +1465,23 @@
       <c r="D19">
         <v>7</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="39" x14ac:dyDescent="0.25">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="39" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1516,24 +1494,23 @@
       <c r="D20">
         <v>7</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Medium</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1546,24 +1523,23 @@
       <c r="D21">
         <v>7</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>High</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1576,24 +1552,23 @@
       <c r="D22">
         <v>8</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Medium</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1606,24 +1581,20 @@
       <c r="D23" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Medium</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1636,24 +1607,20 @@
       <c r="D24" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Medium</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="84.75" x14ac:dyDescent="0.25">
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="84.75" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1666,24 +1633,23 @@
       <c r="D25">
         <v>9</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Medium</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1696,24 +1662,23 @@
       <c r="D26">
         <v>9</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Medium</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="132.75" x14ac:dyDescent="0.25">
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="132.75" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1723,28 +1688,27 @@
       <c r="D27">
         <v>9</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Medium</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="F28" s="10"/>
+      <c r="F28" s="8"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="b">
@@ -1752,7 +1716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1763,7 +1727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1774,7 +1738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1785,7 +1749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1824,16 +1788,16 @@
     <mergeCell ref="G1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="I2:I1048576">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Work Packages/WP1 Management/Risks/PaNOSC Risk Register.xlsx
+++ b/Work Packages/WP1 Management/Risks/PaNOSC Risk Register.xlsx
@@ -921,7 +921,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Work Packages/WP1 Management/Risks/PaNOSC Risk Register.xlsx
+++ b/Work Packages/WP1 Management/Risks/PaNOSC Risk Register.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="102">
   <si>
     <t>#</t>
   </si>
@@ -164,9 +164,6 @@
     <t>Compute resources not available</t>
   </si>
   <si>
-    <t>Staff not recruited</t>
-  </si>
-  <si>
     <t>EOSC delays</t>
   </si>
   <si>
@@ -239,9 +236,6 @@
     <t>Apply for HPC resources, e.g.</t>
   </si>
   <si>
-    <t>PRACE preliminary access</t>
-  </si>
-  <si>
     <t>Start recruitment as early as possible.</t>
   </si>
   <si>
@@ -321,6 +315,12 @@
   </si>
   <si>
     <t>Nicoletta Carboni</t>
+  </si>
+  <si>
+    <t>Delay in staff recruitment</t>
+  </si>
+  <si>
+    <t>EGI to advertise vacancies for us</t>
   </si>
 </sst>
 </file>
@@ -921,13 +921,13 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
     <col min="3" max="3" width="35.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
     <col min="5" max="5" width="7.85546875" customWidth="1"/>
@@ -943,7 +943,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -951,7 +951,7 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
@@ -979,7 +979,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>4</v>
@@ -1011,22 +1011,26 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="b">
+        <v>60</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="2" t="str">
         <f t="shared" ref="I3:I34" si="0">IF(G3="Unlikely",IF(H3="Minor","Low","Medium"),
 IF(G3="Moderate",IF(H3="Major","High","Medium"),
 IF(G3="Very Likely",IF(H3="Minor","Medium",
 IF(H3="Moderate","High","Very High")))))</f>
-        <v>0</v>
+        <v>Medium</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
@@ -1040,19 +1044,23 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Medium</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
@@ -1066,19 +1074,23 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Medium</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
@@ -1095,10 +1107,10 @@
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1107,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
@@ -1124,10 +1136,10 @@
         <v>2</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1136,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
@@ -1153,10 +1165,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1165,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="60.75" x14ac:dyDescent="0.25">
@@ -1182,10 +1194,10 @@
         <v>3</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1194,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
@@ -1211,10 +1223,10 @@
         <v>4</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1223,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="60.75" x14ac:dyDescent="0.25">
@@ -1240,10 +1252,10 @@
         <v>4</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1252,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
@@ -1269,10 +1281,10 @@
         <v>5</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1281,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
@@ -1295,13 +1307,13 @@
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1321,13 +1333,13 @@
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1350,10 +1362,10 @@
         <v>5</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1362,15 +1374,15 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>25</v>
@@ -1379,19 +1391,26 @@
         <v>6</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>High</v>
+      </c>
+      <c r="J16" t="s">
+        <v>101</v>
       </c>
       <c r="K16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
@@ -1399,7 +1418,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>26</v>
@@ -1408,10 +1427,10 @@
         <v>6</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1420,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
@@ -1437,10 +1456,10 @@
         <v>7</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1449,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="84.75" x14ac:dyDescent="0.25">
@@ -1466,10 +1485,10 @@
         <v>7</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1478,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="39" x14ac:dyDescent="0.25">
@@ -1486,7 +1505,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>29</v>
@@ -1495,10 +1514,10 @@
         <v>7</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1507,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1524,10 +1543,10 @@
         <v>7</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1536,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
@@ -1544,7 +1563,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>31</v>
@@ -1553,10 +1572,10 @@
         <v>8</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1565,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
@@ -1579,13 +1598,13 @@
         <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1605,13 +1624,13 @@
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1634,10 +1653,10 @@
         <v>9</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1646,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="60.75" x14ac:dyDescent="0.25">
@@ -1663,10 +1682,10 @@
         <v>9</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1675,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="132.75" x14ac:dyDescent="0.25">
@@ -1689,10 +1708,10 @@
         <v>9</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1701,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1829,10 +1848,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D6"/>
+  <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,36 +1859,48 @@
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>87</v>
       </c>
-      <c r="D4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>89</v>
       </c>
-      <c r="D6" t="s">
-        <v>91</v>
+      <c r="F6" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Work Packages/WP1 Management/Risks/PaNOSC Risk Register.xlsx
+++ b/Work Packages/WP1 Management/Risks/PaNOSC Risk Register.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="107">
   <si>
     <t>#</t>
   </si>
@@ -321,13 +321,28 @@
   </si>
   <si>
     <t>EGI to advertise vacancies for us</t>
+  </si>
+  <si>
+    <t>All partners think that adopting a common framework is highly likely</t>
+  </si>
+  <si>
+    <t>Assessment Formula</t>
+  </si>
+  <si>
+    <t>Very High</t>
+  </si>
+  <si>
+    <t>Very low</t>
+  </si>
+  <si>
+    <t>No clear plan from partner sites how they will implement the DP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,8 +387,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,6 +427,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -417,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -448,11 +495,130 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -473,6 +639,99 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -553,37 +812,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -605,22 +833,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:M34" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:M34" totalsRowShown="0" headerRowDxfId="30">
   <autoFilter ref="A2:M34"/>
   <tableColumns count="13">
     <tableColumn id="1" name="#"/>
     <tableColumn id="2" name="Risk Name"/>
-    <tableColumn id="3" name="Risk Description" dataDxfId="4"/>
+    <tableColumn id="3" name="Risk Description" dataDxfId="29"/>
     <tableColumn id="4" name="WP involved"/>
     <tableColumn id="5" name="Probability"/>
-    <tableColumn id="8" name="Initial mitigation measure" dataDxfId="3"/>
-    <tableColumn id="15" name="New Probability" dataDxfId="2"/>
-    <tableColumn id="14" name="Impact" dataDxfId="1"/>
-    <tableColumn id="13" name="Assessment" dataDxfId="0">
-      <calculatedColumnFormula>IF(G3="Unlikely",IF(H3="Minor","Low","Medium"),
-IF(G3="Moderate",IF(H3="Major","High","Medium"),
-IF(G3="Very Likely",IF(H3="Minor","Medium",
-IF(H3="Moderate","High","Very High")))))</calculatedColumnFormula>
+    <tableColumn id="8" name="Initial mitigation measure" dataDxfId="28"/>
+    <tableColumn id="15" name="New Probability" dataDxfId="27"/>
+    <tableColumn id="14" name="Impact" dataDxfId="26"/>
+    <tableColumn id="13" name="Assessment" dataDxfId="13">
+      <calculatedColumnFormula>IF(G3="Unlikely",IF(H3="Minor","1 Very Low",IF(H3="Moderate","2 Low","3 Medium")),
+IF(G3="Moderate",IF(H3="Minor","2 Low",
+IF(H3="Moderate","3 Medium","4 High")),
+IF(G3="Very Likely",IF(H3="Minor","3 Medium",
+IF(H3="Moderate","4 High","5 Very High")))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" name="Comments"/>
     <tableColumn id="10" name="Owner"/>
@@ -920,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,7 +1163,7 @@
     <col min="6" max="6" width="35.7109375" style="9" customWidth="1"/>
     <col min="7" max="7" width="13" style="3" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="3" customWidth="1"/>
     <col min="10" max="10" width="35.7109375" customWidth="1"/>
     <col min="11" max="11" width="21.42578125" customWidth="1"/>
     <col min="12" max="12" width="35.7109375" customWidth="1"/>
@@ -1026,8 +1255,17 @@
         <v>86</v>
       </c>
       <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I34" si="0">IF(G3="Unlikely",IF(H3="Minor","Low","Medium"),
-IF(G3="Moderate",IF(H3="Major","High","Medium"),
+        <f t="shared" ref="I3:I34" si="0">IF(G3="Unlikely",IF(H3="Minor","1 Very Low",IF(H3="Moderate","2 Low","3 Medium")),
+IF(G3="Moderate",IF(H3="Minor","2 Low",
+IF(H3="Moderate","3 Medium","4 High")),
+IF(G3="Very Likely",IF(H3="Minor","3 Medium",
+IF(H3="Moderate","4 High","5 Very High")))))</f>
+        <v>3 Medium</v>
+      </c>
+      <c r="J3" t="str">
+        <f>IF(G3="Unlikely",IF(H3="Minor","Very Low",IF(H3="Moderate","Low","Medium")),
+IF(G3="Moderate",IF(H3="Minor","Medium",
+IF(H3="Moderate","Medium","High")),
 IF(G3="Very Likely",IF(H3="Minor","Medium",
 IF(H3="Moderate","High","Very High")))))</f>
         <v>Medium</v>
@@ -1060,7 +1298,7 @@
       </c>
       <c r="I4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Medium</v>
+        <v>2 Low</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
@@ -1090,7 +1328,7 @@
       </c>
       <c r="I5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Medium</v>
+        <v>2 Low</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
@@ -1112,11 +1350,18 @@
       <c r="F6" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2 Low</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="K6" t="s">
         <v>92</v>
@@ -1141,11 +1386,18 @@
       <c r="F7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>3 Medium</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="K7" t="s">
         <v>92</v>
@@ -1404,7 +1656,7 @@
       </c>
       <c r="I16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>High</v>
+        <v>4 High</v>
       </c>
       <c r="J16" t="s">
         <v>101</v>
@@ -1529,7 +1781,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1741,7 +1993,7 @@
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="3" t="b">
+      <c r="I29" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1752,7 +2004,7 @@
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="3" t="b">
+      <c r="I30" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1763,7 +2015,7 @@
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="3" t="b">
+      <c r="I31" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1774,7 +2026,7 @@
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="3" t="b">
+      <c r="I32" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1785,7 +2037,7 @@
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="3" t="b">
+      <c r="I33" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1796,7 +2048,7 @@
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="3" t="b">
+      <c r="I34" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1807,17 +2059,22 @@
     <mergeCell ref="G1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="I2:I1048576">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
-      <formula>"Low"</formula>
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"2 Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
-      <formula>"Medium"</formula>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>"3 Medium"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
-      <formula>"High"</formula>
+      <formula>"4 High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
-      <formula>"Very High"</formula>
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>"5 Very High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"1 Very Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1848,29 +2105,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F6"/>
+  <dimension ref="B2:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>85</v>
       </c>
@@ -1880,8 +2157,14 @@
       <c r="F4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>86</v>
       </c>
@@ -1889,10 +2172,28 @@
         <v>86</v>
       </c>
       <c r="F5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="M5" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>87</v>
       </c>
@@ -1900,10 +2201,119 @@
         <v>89</v>
       </c>
       <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
         <v>87</v>
       </c>
+      <c r="G10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" t="s">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F2:H2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Work Packages/WP1 Management/Risks/PaNOSC Risk Register.xlsx
+++ b/Work Packages/WP1 Management/Risks/PaNOSC Risk Register.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Risks" sheetId="1" r:id="rId1"/>
+    <sheet name="Risks during Y1" sheetId="1" r:id="rId1"/>
     <sheet name="Drop down lists" sheetId="2" r:id="rId2"/>
+    <sheet name="README" sheetId="3" r:id="rId3"/>
+    <sheet name="Risks" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="195">
   <si>
     <t>#</t>
   </si>
@@ -336,13 +338,296 @@
   </si>
   <si>
     <t>No clear plan from partner sites how they will implement the DP</t>
+  </si>
+  <si>
+    <t>During the PaNOSC Executive Board risk management procedures and risk classification was discussed.</t>
+  </si>
+  <si>
+    <t>Tiziana Ferrari, member of the Executive Board proposed following the EOSC-hub risk management procedure and share documentation with Jordi Bodera 05/11/2019</t>
+  </si>
+  <si>
+    <t>Each risk is supposed to be described in Risk registry in the following way:</t>
+  </si>
+  <si>
+    <t>• Asset – project resource that needs to be protected from risk occurrence</t>
+  </si>
+  <si>
+    <t>• Threat(s)</t>
+  </si>
+  <si>
+    <t>• Risk assessment result</t>
+  </si>
+  <si>
+    <t>• Risk owner</t>
+  </si>
+  <si>
+    <t>• Work package</t>
+  </si>
+  <si>
+    <t>• Likelihood - Likelihood (probability) is the chance that something is going to happen</t>
+  </si>
+  <si>
+    <t>• Impact - A consequence (impact) is the outcome of an event and has an effect on objectives</t>
+  </si>
+  <si>
+    <t>• Risk level - The level of risk is its magnitude. It is estimated by considering and combining impact and likelihood. Likelihood is the chance that something might happen.</t>
+  </si>
+  <si>
+    <t>• Consequences of risk occurrence – description of the consequences the risk will have in case of occurrence</t>
+  </si>
+  <si>
+    <t>• Established countermeasures</t>
+  </si>
+  <si>
+    <t>• Identified / remaining vulnerabilities</t>
+  </si>
+  <si>
+    <t>• Follow-up actions</t>
+  </si>
+  <si>
+    <t>Risk Likelihood descriptors</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Likelihood of occurrence</t>
+  </si>
+  <si>
+    <t>Possible</t>
+  </si>
+  <si>
+    <t>Likely</t>
+  </si>
+  <si>
+    <t>Almost Certain</t>
+  </si>
+  <si>
+    <t>There is a strong possibility the event will occur</t>
+  </si>
+  <si>
+    <t>Very likely. The event is expected to occur in most circumstances</t>
+  </si>
+  <si>
+    <t>The event may occur at some time</t>
+  </si>
+  <si>
+    <t>Not expected, but there's a slight possibility it may occur at some time</t>
+  </si>
+  <si>
+    <t>Risk Impact descriptors</t>
+  </si>
+  <si>
+    <t>Catastrophic</t>
+  </si>
+  <si>
+    <t>Project Objectives impact</t>
+  </si>
+  <si>
+    <t>• Any risks which will have just a light impact on the project, still these must be addressed in time.
+• Degradation of deliverable quality barely noticeable.</t>
+  </si>
+  <si>
+    <t>• Risks which will cause some problems, but nothing too significant.
+• Reduction of deliverable quality requires approval.</t>
+  </si>
+  <si>
+    <t>• Risks which can significantly jeopardize some aspects of the project, but which will not compromise the success of the whole project.
+• Reduction of deliverable quality unacceptable.</t>
+  </si>
+  <si>
+    <t>• A risk that can be detrimental for the whole project.</t>
+  </si>
+  <si>
+    <t>Risk likelihood and impact matrix (risk level)</t>
+  </si>
+  <si>
+    <t>Likelihood</t>
+  </si>
+  <si>
+    <t>The risk likelihood and impact matrix is a grid for mapping likelihood of each risk occurrence and its impact to the project objectives in case the risk occurs. Risks are prioritized according to their potential consequences on the project objectives.</t>
+  </si>
+  <si>
+    <t>Extreme</t>
+  </si>
+  <si>
+    <t>Risk responses</t>
+  </si>
+  <si>
+    <t>Within this process the risk owner, who is responsible for given risk and its risk response, must be identified. Risk response should be appropriate for the significance of the risk (risk level), cost-effective, realistic and agreed by impacted Work Packages leaders, Project Coordinator and for high and extreme level risks also by PMB during periodic rick registry review (every 6 months).
+For each risk level, the following table presents a suggested response, to be properly defined:</t>
+  </si>
+  <si>
+    <t>Risk Level</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>• Accept
+• Define recovery activities
+• Monitor and review</t>
+  </si>
+  <si>
+    <t>• Mitigate
+• Define and implement mitigation activities
+• Managed by monitoring or response procedures</t>
+  </si>
+  <si>
+    <t>• Avoid or Mitigate
+• Define and implement
+    o controls
+    o mitigation activities
+    o recovery activities
+• requires AMB attention and definition of management responsibility</t>
+  </si>
+  <si>
+    <t>• Avoid or Mitigate
+• Define and implement
+    o controls
+    o contingency plan
+    o recovery activities
+    o mitigation activities
+• Must be managed by PMB with a detailed treatment plan.</t>
+  </si>
+  <si>
+    <t>Min every year</t>
+  </si>
+  <si>
+    <t>Min every 3 months</t>
+  </si>
+  <si>
+    <t>Min every month</t>
+  </si>
+  <si>
+    <t>Min every 6 months</t>
+  </si>
+  <si>
+    <t>Risk engagement</t>
+  </si>
+  <si>
+    <t>Involvement</t>
+  </si>
+  <si>
+    <t>Coodinator</t>
+  </si>
+  <si>
+    <t>WP leader</t>
+  </si>
+  <si>
+    <t>PMC</t>
+  </si>
+  <si>
+    <t>Active engagement</t>
+  </si>
+  <si>
+    <t>Consulted</t>
+  </si>
+  <si>
+    <t>Informed</t>
+  </si>
+  <si>
+    <t>Active Engagement</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>Information following new guidance</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>Risk Assessment result</t>
+  </si>
+  <si>
+    <t>Risk owner</t>
+  </si>
+  <si>
+    <t>WP(s)</t>
+  </si>
+  <si>
+    <t>Risk level</t>
+  </si>
+  <si>
+    <t>Consequences of occurrence</t>
+  </si>
+  <si>
+    <t>Establisehd countermeasures</t>
+  </si>
+  <si>
+    <t>Identified/remaining vulnerabilities</t>
+  </si>
+  <si>
+    <t>Follow-up actions</t>
+  </si>
+  <si>
+    <t>Last reviewed by owner</t>
+  </si>
+  <si>
+    <t>Last reviewed by PMC</t>
+  </si>
+  <si>
+    <t>User community</t>
+  </si>
+  <si>
+    <t>PaNOSC Staff</t>
+  </si>
+  <si>
+    <t>Data Policy</t>
+  </si>
+  <si>
+    <t>Catalogue API</t>
+  </si>
+  <si>
+    <t>Data Catalogue</t>
+  </si>
+  <si>
+    <t>EOSC</t>
+  </si>
+  <si>
+    <t>Jordi Bodera</t>
+  </si>
+  <si>
+    <t>Hans Fanghor</t>
+  </si>
+  <si>
+    <t>Juncheng E</t>
+  </si>
+  <si>
+    <t>Jean-Francois Perrin</t>
+  </si>
+  <si>
+    <t>Failure to deliver as per grant agreement and to contribute to the EOSC</t>
+  </si>
+  <si>
+    <t>Bi-weekly meetings, Executive Board, face to face meetings, ensure targets of PaNOSC keep being aligned with thouse of partners</t>
+  </si>
+  <si>
+    <t>Higher priority projects at each partner, remote working models</t>
+  </si>
+  <si>
+    <t>Monitor attendance to bi-weekly meetings and engagement with WP team</t>
+  </si>
+  <si>
+    <t>Bi-weekly meetings so partners and WP leaders can raise issues about staff</t>
+  </si>
+  <si>
+    <t>Listen carefully to feedback from partners and WP leaders</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,8 +680,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,10 +750,98 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -464,7 +851,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -489,67 +876,159 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -589,35 +1068,7 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -636,99 +1087,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -833,18 +1191,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:M34" totalsRowShown="0" headerRowDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:M34" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="A2:M34"/>
   <tableColumns count="13">
     <tableColumn id="1" name="#"/>
     <tableColumn id="2" name="Risk Name"/>
-    <tableColumn id="3" name="Risk Description" dataDxfId="29"/>
+    <tableColumn id="3" name="Risk Description" dataDxfId="10"/>
     <tableColumn id="4" name="WP involved"/>
     <tableColumn id="5" name="Probability"/>
-    <tableColumn id="8" name="Initial mitigation measure" dataDxfId="28"/>
-    <tableColumn id="15" name="New Probability" dataDxfId="27"/>
-    <tableColumn id="14" name="Impact" dataDxfId="26"/>
-    <tableColumn id="13" name="Assessment" dataDxfId="13">
+    <tableColumn id="8" name="Initial mitigation measure" dataDxfId="9"/>
+    <tableColumn id="15" name="New Probability" dataDxfId="8"/>
+    <tableColumn id="14" name="Impact" dataDxfId="7"/>
+    <tableColumn id="13" name="Assessment" dataDxfId="6">
       <calculatedColumnFormula>IF(G3="Unlikely",IF(H3="Minor","1 Very Low",IF(H3="Moderate","2 Low","3 Medium")),
 IF(G3="Moderate",IF(H3="Minor","2 Low",
 IF(H3="Moderate","3 Medium","4 High")),
@@ -855,6 +1213,30 @@
     <tableColumn id="10" name="Owner"/>
     <tableColumn id="11" name="Owner Comments"/>
     <tableColumn id="12" name="Due Date"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="RiskLikelhood" displayName="RiskLikelhood" ref="B21:D25" totalsRowShown="0">
+  <autoFilter ref="B21:D25"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Rating"/>
+    <tableColumn id="2" name="Description"/>
+    <tableColumn id="3" name="Likelihood of occurrence"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="RiskImpact" displayName="RiskImpact" ref="B30:D34" totalsRowShown="0">
+  <autoFilter ref="B30:D34"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Rating"/>
+    <tableColumn id="2" name="Description"/>
+    <tableColumn id="3" name="Project Objectives impact" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1149,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,22 +1553,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
     </row>
     <row r="2" spans="1:13" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -1629,7 +2011,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2059,21 +2441,21 @@
     <mergeCell ref="G1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="I2:I1048576">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
-      <formula>"2 Low"</formula>
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"5 Very High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"4 High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"3 Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
-      <formula>"4 High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
-      <formula>"5 Very High"</formula>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"2 Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"1 Very Low"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2108,7 +2490,7 @@
   <dimension ref="B2:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2123,27 +2505,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2180,16 +2562,16 @@
       <c r="H5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="N5" s="18" t="s">
+      <c r="N5" s="15" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2209,16 +2591,16 @@
       <c r="H6" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="L6" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" s="14" t="s">
+      <c r="L6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2232,16 +2614,16 @@
       <c r="H7" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="M7" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" s="14" t="s">
+      <c r="M7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="11" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2255,13 +2637,13 @@
       <c r="H8" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="N8" s="10" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2316,4 +2698,1722 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="10" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+    </row>
+    <row r="3" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+    </row>
+    <row r="14" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F26" s="24"/>
+      <c r="G26" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="J26" s="26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F27" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="L27" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="J28" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="L28" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F29" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L29" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" t="s">
+        <v>135</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="J30" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L30" s="30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F37" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="G37" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="L37" s="47"/>
+    </row>
+    <row r="38" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="23"/>
+      <c r="F38" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="L38" s="37"/>
+    </row>
+    <row r="39" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="23"/>
+      <c r="F39" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="L39" s="42"/>
+    </row>
+    <row r="40" spans="2:13" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F40" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G40" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="L40" s="37"/>
+    </row>
+    <row r="41" spans="2:13" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F41" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="G41" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="L41" s="42"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F44" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F46" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="G46" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+    </row>
+    <row r="47" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="F47" s="48"/>
+      <c r="G47" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="H47" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="I47" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="J47" s="49" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="F48" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="G48" s="50"/>
+      <c r="H48" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
+    </row>
+    <row r="49" spans="6:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="F49" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="G49" s="50"/>
+      <c r="H49" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="I49" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="J49" s="52"/>
+    </row>
+    <row r="50" spans="6:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="F50" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="G50" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="H50" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="I50" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="J50" s="51" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="6:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="F51" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="G51" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="H51" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="I51" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="J51" s="51" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="F33:M35"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="F21:M23"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" style="58" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" customWidth="1"/>
+    <col min="16" max="16" width="20.140625" customWidth="1"/>
+    <col min="17" max="17" width="20.85546875" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+    </row>
+    <row r="2" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="I2" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="J2" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="K2" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="L2" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="N2" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="O2" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="P2" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q2" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="R2" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="S2" s="55" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="R3" s="63">
+        <v>43815</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>180</v>
+      </c>
+      <c r="I5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" t="s">
+        <v>126</v>
+      </c>
+      <c r="L5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="R5" s="63">
+        <v>43815</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" t="s">
+        <v>181</v>
+      </c>
+      <c r="I6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>126</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" t="s">
+        <v>181</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" t="s">
+        <v>182</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="72.75" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" t="s">
+        <v>183</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9" t="s">
+        <v>126</v>
+      </c>
+      <c r="L9" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" t="s">
+        <v>186</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10" t="s">
+        <v>126</v>
+      </c>
+      <c r="L10" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="84.75" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" t="s">
+        <v>180</v>
+      </c>
+      <c r="I11" t="s">
+        <v>186</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" t="s">
+        <v>85</v>
+      </c>
+      <c r="M11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" t="s">
+        <v>187</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="39" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" t="s">
+        <v>183</v>
+      </c>
+      <c r="I13" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" t="s">
+        <v>86</v>
+      </c>
+      <c r="M13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" t="s">
+        <v>182</v>
+      </c>
+      <c r="I14" t="s">
+        <v>186</v>
+      </c>
+      <c r="J14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" t="s">
+        <v>86</v>
+      </c>
+      <c r="M14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="39" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" t="s">
+        <v>187</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15" t="s">
+        <v>126</v>
+      </c>
+      <c r="L15" t="s">
+        <v>85</v>
+      </c>
+      <c r="M15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" t="s">
+        <v>180</v>
+      </c>
+      <c r="I16" t="s">
+        <v>188</v>
+      </c>
+      <c r="J16">
+        <v>6</v>
+      </c>
+      <c r="K16" t="s">
+        <v>126</v>
+      </c>
+      <c r="L16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" t="s">
+        <v>184</v>
+      </c>
+      <c r="I17" t="s">
+        <v>188</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L17" t="s">
+        <v>85</v>
+      </c>
+      <c r="M17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" t="s">
+        <v>184</v>
+      </c>
+      <c r="I18" t="s">
+        <v>97</v>
+      </c>
+      <c r="J18">
+        <v>7</v>
+      </c>
+      <c r="K18" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" t="s">
+        <v>85</v>
+      </c>
+      <c r="M18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="120.75" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" t="s">
+        <v>184</v>
+      </c>
+      <c r="I19" t="s">
+        <v>97</v>
+      </c>
+      <c r="J19">
+        <v>7</v>
+      </c>
+      <c r="K19" t="s">
+        <v>126</v>
+      </c>
+      <c r="L19" t="s">
+        <v>85</v>
+      </c>
+      <c r="M19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20" t="s">
+        <v>97</v>
+      </c>
+      <c r="J20">
+        <v>7</v>
+      </c>
+      <c r="K20" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20" t="s">
+        <v>86</v>
+      </c>
+      <c r="M20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" t="s">
+        <v>97</v>
+      </c>
+      <c r="J21">
+        <v>7</v>
+      </c>
+      <c r="K21" t="s">
+        <v>126</v>
+      </c>
+      <c r="L21" t="s">
+        <v>86</v>
+      </c>
+      <c r="M21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" t="s">
+        <v>179</v>
+      </c>
+      <c r="I22" t="s">
+        <v>98</v>
+      </c>
+      <c r="J22">
+        <v>8</v>
+      </c>
+      <c r="K22" t="s">
+        <v>126</v>
+      </c>
+      <c r="L22" t="s">
+        <v>85</v>
+      </c>
+      <c r="M22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" t="s">
+        <v>186</v>
+      </c>
+      <c r="J23" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" t="s">
+        <v>88</v>
+      </c>
+      <c r="L23" t="s">
+        <v>86</v>
+      </c>
+      <c r="M23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" t="s">
+        <v>187</v>
+      </c>
+      <c r="J24" t="s">
+        <v>59</v>
+      </c>
+      <c r="K24" t="s">
+        <v>88</v>
+      </c>
+      <c r="L24" t="s">
+        <v>86</v>
+      </c>
+      <c r="M24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="120.75" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25">
+        <v>9</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" t="s">
+        <v>99</v>
+      </c>
+      <c r="J25">
+        <v>9</v>
+      </c>
+      <c r="K25" t="s">
+        <v>126</v>
+      </c>
+      <c r="L25" t="s">
+        <v>85</v>
+      </c>
+      <c r="M25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="84.75" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26">
+        <v>9</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" t="s">
+        <v>99</v>
+      </c>
+      <c r="J26">
+        <v>9</v>
+      </c>
+      <c r="K26" t="s">
+        <v>126</v>
+      </c>
+      <c r="L26" t="s">
+        <v>85</v>
+      </c>
+      <c r="M26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="168.75" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" t="s">
+        <v>99</v>
+      </c>
+      <c r="J27">
+        <v>9</v>
+      </c>
+      <c r="K27" t="s">
+        <v>88</v>
+      </c>
+      <c r="L27" t="s">
+        <v>86</v>
+      </c>
+      <c r="M27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>README!$C$22:$C$25</xm:f>
+          </x14:formula1>
+          <xm:sqref>K3:K27</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>README!$C$31:$C$34</xm:f>
+          </x14:formula1>
+          <xm:sqref>L3:L27</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>README!$L$27:$L$30</xm:f>
+          </x14:formula1>
+          <xm:sqref>M3:M27</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Work Packages/WP1 Management/Risks/PaNOSC Risk Register.xlsx
+++ b/Work Packages/WP1 Management/Risks/PaNOSC Risk Register.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Risks during Y1" sheetId="1" r:id="rId1"/>
-    <sheet name="Drop down lists" sheetId="2" r:id="rId2"/>
-    <sheet name="README" sheetId="3" r:id="rId3"/>
-    <sheet name="Risks" sheetId="4" r:id="rId4"/>
+    <sheet name="README" sheetId="3" r:id="rId1"/>
+    <sheet name="Risks" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId5"/>
+    <sheet name="Risks during Y1" sheetId="1" r:id="rId6"/>
+    <sheet name="Drop down lists" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -892,35 +895,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -938,51 +914,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1014,6 +948,76 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1023,50 +1027,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1171,6 +1136,44 @@
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
@@ -1191,34 +1194,6 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:M34" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="A2:M34"/>
-  <tableColumns count="13">
-    <tableColumn id="1" name="#"/>
-    <tableColumn id="2" name="Risk Name"/>
-    <tableColumn id="3" name="Risk Description" dataDxfId="10"/>
-    <tableColumn id="4" name="WP involved"/>
-    <tableColumn id="5" name="Probability"/>
-    <tableColumn id="8" name="Initial mitigation measure" dataDxfId="9"/>
-    <tableColumn id="15" name="New Probability" dataDxfId="8"/>
-    <tableColumn id="14" name="Impact" dataDxfId="7"/>
-    <tableColumn id="13" name="Assessment" dataDxfId="6">
-      <calculatedColumnFormula>IF(G3="Unlikely",IF(H3="Minor","1 Very Low",IF(H3="Moderate","2 Low","3 Medium")),
-IF(G3="Moderate",IF(H3="Minor","2 Low",
-IF(H3="Moderate","3 Medium","4 High")),
-IF(G3="Very Likely",IF(H3="Minor","3 Medium",
-IF(H3="Moderate","4 High","5 Very High")))))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" name="Comments"/>
-    <tableColumn id="10" name="Owner"/>
-    <tableColumn id="11" name="Owner Comments"/>
-    <tableColumn id="12" name="Due Date"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="RiskLikelhood" displayName="RiskLikelhood" ref="B21:D25" totalsRowShown="0">
   <autoFilter ref="B21:D25"/>
   <tableColumns count="3">
@@ -1230,13 +1205,41 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="RiskImpact" displayName="RiskImpact" ref="B30:D34" totalsRowShown="0">
   <autoFilter ref="B30:D34"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Rating"/>
     <tableColumn id="2" name="Description"/>
-    <tableColumn id="3" name="Project Objectives impact" dataDxfId="5"/>
+    <tableColumn id="3" name="Project Objectives impact" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:M34" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A2:M34"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="#"/>
+    <tableColumn id="2" name="Risk Name"/>
+    <tableColumn id="3" name="Risk Description" dataDxfId="5"/>
+    <tableColumn id="4" name="WP involved"/>
+    <tableColumn id="5" name="Probability"/>
+    <tableColumn id="8" name="Initial mitigation measure" dataDxfId="4"/>
+    <tableColumn id="15" name="New Probability" dataDxfId="3"/>
+    <tableColumn id="14" name="Impact" dataDxfId="2"/>
+    <tableColumn id="13" name="Assessment" dataDxfId="1">
+      <calculatedColumnFormula>IF(G3="Unlikely",IF(H3="Minor","1 Very Low",IF(H3="Moderate","2 Low","3 Medium")),
+IF(G3="Moderate",IF(H3="Minor","2 Low",
+IF(H3="Moderate","3 Medium","4 High")),
+IF(G3="Very Likely",IF(H3="Minor","3 Medium",
+IF(H3="Moderate","4 High","5 Very High")))))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="Comments"/>
+    <tableColumn id="10" name="Owner"/>
+    <tableColumn id="11" name="Owner Comments"/>
+    <tableColumn id="12" name="Due Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1529,1179 +1532,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="13" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="35.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" customWidth="1"/>
-    <col min="12" max="12" width="35.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-    </row>
-    <row r="2" spans="1:13" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I34" si="0">IF(G3="Unlikely",IF(H3="Minor","1 Very Low",IF(H3="Moderate","2 Low","3 Medium")),
-IF(G3="Moderate",IF(H3="Minor","2 Low",
-IF(H3="Moderate","3 Medium","4 High")),
-IF(G3="Very Likely",IF(H3="Minor","3 Medium",
-IF(H3="Moderate","4 High","5 Very High")))))</f>
-        <v>3 Medium</v>
-      </c>
-      <c r="J3" t="str">
-        <f>IF(G3="Unlikely",IF(H3="Minor","Very Low",IF(H3="Moderate","Low","Medium")),
-IF(G3="Moderate",IF(H3="Minor","Medium",
-IF(H3="Moderate","Medium","High")),
-IF(G3="Very Likely",IF(H3="Minor","Medium",
-IF(H3="Moderate","High","Very High")))))</f>
-        <v>Medium</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2 Low</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2 Low</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2 Low</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>3 Medium</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="39" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16">
-        <v>6</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>4 High</v>
-      </c>
-      <c r="J16" t="s">
-        <v>101</v>
-      </c>
-      <c r="K16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17">
-        <v>6</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="84.75" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19">
-        <v>7</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="39" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20">
-        <v>7</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21">
-        <v>7</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22">
-        <v>8</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="84.75" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25">
-        <v>9</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26">
-        <v>9</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="132.75" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27">
-        <v>9</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K27" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:L1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="I2:I1048576">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
-      <formula>"5 Very High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>"4 High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"3 Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
-      <formula>"2 Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
-      <formula>"1 Very Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Drop down lists'!$D$3:$D$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>G3:G34</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Drop down lists'!$B$3:$B$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>H3:H34</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F2:H2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M51"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -2718,33 +1548,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
     </row>
     <row r="3" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -2752,86 +1582,86 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
     </row>
     <row r="13" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
@@ -2851,16 +1681,16 @@
       <c r="D21" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22">
@@ -2872,14 +1702,14 @@
       <c r="D22" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23">
@@ -2891,14 +1721,14 @@
       <c r="D23" t="s">
         <v>131</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24">
@@ -2921,48 +1751,48 @@
       <c r="D25" t="s">
         <v>130</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F26" s="24"/>
-      <c r="G26" s="26" t="s">
+      <c r="F26" s="59"/>
+      <c r="G26" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="H26" s="26" t="s">
+      <c r="H26" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="I26" s="26" t="s">
+      <c r="I26" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="J26" s="26" t="s">
+      <c r="J26" s="17" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="G27" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="I27" s="28" t="s">
+      <c r="G27" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J27" s="28" t="s">
+      <c r="J27" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="L27" s="27" t="s">
+      <c r="L27" s="18" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2970,42 +1800,42 @@
       <c r="B28" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="G28" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="H28" s="28" t="s">
+      <c r="G28" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="I28" s="29" t="s">
+      <c r="I28" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="J28" s="29" t="s">
+      <c r="J28" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="L28" s="28" t="s">
+      <c r="L28" s="19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="H29" s="29" t="s">
+      <c r="H29" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="I29" s="29" t="s">
+      <c r="I29" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="J29" s="30" t="s">
+      <c r="J29" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="L29" s="29" t="s">
+      <c r="L29" s="20" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3019,22 +1849,22 @@
       <c r="D30" t="s">
         <v>135</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="G30" s="28" t="s">
+      <c r="G30" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="H30" s="29" t="s">
+      <c r="H30" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="I30" s="30" t="s">
+      <c r="I30" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="J30" s="30" t="s">
+      <c r="J30" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="L30" s="30" t="s">
+      <c r="L30" s="21" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3059,7 +1889,7 @@
       <c r="D32" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F32" s="31" t="s">
+      <c r="F32" s="22" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3073,16 +1903,16 @@
       <c r="D33" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F33" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34">
@@ -3094,101 +1924,101 @@
       <c r="D34" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F37" s="45" t="s">
+      <c r="F37" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="G37" s="46" t="s">
+      <c r="G37" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="46" t="s">
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="L37" s="47"/>
+      <c r="L37" s="53"/>
     </row>
     <row r="38" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="23"/>
-      <c r="F38" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="G38" s="34" t="s">
+      <c r="B38" s="16"/>
+      <c r="F38" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G38" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="36" t="s">
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="L38" s="37"/>
+      <c r="L38" s="50"/>
     </row>
     <row r="39" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="23"/>
-      <c r="F39" s="38" t="s">
+      <c r="B39" s="16"/>
+      <c r="F39" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="39" t="s">
+      <c r="G39" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="41" t="s">
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="L39" s="42"/>
+      <c r="L39" s="46"/>
     </row>
     <row r="40" spans="2:13" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F40" s="33" t="s">
+      <c r="F40" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G40" s="43" t="s">
+      <c r="G40" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="36" t="s">
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="L40" s="37"/>
+      <c r="L40" s="50"/>
     </row>
     <row r="41" spans="2:13" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F41" s="38" t="s">
+      <c r="F41" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="G41" s="39" t="s">
+      <c r="G41" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="41" t="s">
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="L41" s="42"/>
+      <c r="L41" s="46"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F44" s="10" t="s">
@@ -3196,104 +2026,99 @@
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F46" s="48" t="s">
+      <c r="F46" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="G46" s="32" t="s">
+      <c r="G46" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="H46" s="32"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="32"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
     </row>
     <row r="47" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="F47" s="48"/>
-      <c r="G47" s="49" t="s">
+      <c r="F47" s="41"/>
+      <c r="G47" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="H47" s="49" t="s">
+      <c r="H47" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="I47" s="54" t="s">
+      <c r="I47" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="J47" s="49" t="s">
+      <c r="J47" s="26" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="F48" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="G48" s="50"/>
-      <c r="H48" s="51" t="s">
+      <c r="F48" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G48" s="27"/>
+      <c r="H48" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="I48" s="52"/>
-      <c r="J48" s="52"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
     </row>
     <row r="49" spans="6:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="F49" s="49" t="s">
+      <c r="F49" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="G49" s="50"/>
-      <c r="H49" s="51" t="s">
+      <c r="G49" s="27"/>
+      <c r="H49" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="I49" s="51" t="s">
+      <c r="I49" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="J49" s="52"/>
+      <c r="J49" s="29"/>
     </row>
     <row r="50" spans="6:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="F50" s="49" t="s">
+      <c r="F50" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="G50" s="53" t="s">
+      <c r="G50" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="H50" s="51" t="s">
+      <c r="H50" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="I50" s="51" t="s">
+      <c r="I50" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="J50" s="51" t="s">
+      <c r="J50" s="28" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="51" spans="6:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="F51" s="49" t="s">
+      <c r="F51" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="G51" s="51" t="s">
+      <c r="G51" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="H51" s="51" t="s">
+      <c r="H51" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="I51" s="51" t="s">
+      <c r="I51" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="J51" s="51" t="s">
+      <c r="J51" s="28" t="s">
         <v>165</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="F33:M35"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B18:D18"/>
@@ -3305,14 +2130,19 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F33:M35"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="K41:L41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3323,7 +2153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S27"/>
   <sheetViews>
@@ -3340,7 +2170,7 @@
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" style="58" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" style="35" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" customWidth="1"/>
@@ -3354,86 +2184,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="62" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
     </row>
     <row r="2" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="J2" s="55" t="s">
+      <c r="J2" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="K2" s="55" t="s">
+      <c r="K2" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="L2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="55" t="s">
+      <c r="M2" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="N2" s="55" t="s">
+      <c r="N2" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="O2" s="55" t="s">
+      <c r="O2" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="P2" s="55" t="s">
+      <c r="P2" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="Q2" s="55" t="s">
+      <c r="Q2" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="R2" s="55" t="s">
+      <c r="R2" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="S2" s="55" t="s">
+      <c r="S2" s="32" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3453,7 +2283,7 @@
       <c r="E3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="34" t="s">
         <v>60</v>
       </c>
       <c r="G3" t="s">
@@ -3486,7 +2316,7 @@
       <c r="Q3" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="R3" s="63">
+      <c r="R3" s="37">
         <v>43815</v>
       </c>
     </row>
@@ -3506,7 +2336,7 @@
       <c r="E4" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="34" t="s">
         <v>61</v>
       </c>
       <c r="G4" t="s">
@@ -3544,7 +2374,7 @@
       <c r="E5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="34" t="s">
         <v>62</v>
       </c>
       <c r="G5" t="s">
@@ -3577,7 +2407,7 @@
       <c r="Q5" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="R5" s="63">
+      <c r="R5" s="37">
         <v>43815</v>
       </c>
     </row>
@@ -3597,7 +2427,7 @@
       <c r="E6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="34" t="s">
         <v>63</v>
       </c>
       <c r="G6" t="s">
@@ -3635,7 +2465,7 @@
       <c r="E7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="34" t="s">
         <v>64</v>
       </c>
       <c r="G7" t="s">
@@ -3673,7 +2503,7 @@
       <c r="E8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="34" t="s">
         <v>65</v>
       </c>
       <c r="G8" t="s">
@@ -3711,7 +2541,7 @@
       <c r="E9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="34" t="s">
         <v>66</v>
       </c>
       <c r="G9" t="s">
@@ -3749,7 +2579,7 @@
       <c r="E10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="34" t="s">
         <v>67</v>
       </c>
       <c r="I10" t="s">
@@ -3784,7 +2614,7 @@
       <c r="E11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="34" t="s">
         <v>68</v>
       </c>
       <c r="G11" t="s">
@@ -3822,7 +2652,7 @@
       <c r="E12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="34" t="s">
         <v>69</v>
       </c>
       <c r="I12" t="s">
@@ -3857,7 +2687,7 @@
       <c r="E13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="34" t="s">
         <v>70</v>
       </c>
       <c r="G13" t="s">
@@ -3895,7 +2725,7 @@
       <c r="E14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="F14" s="34" t="s">
         <v>71</v>
       </c>
       <c r="G14" t="s">
@@ -3933,7 +2763,7 @@
       <c r="E15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="34" t="s">
         <v>72</v>
       </c>
       <c r="I15" t="s">
@@ -3968,7 +2798,7 @@
       <c r="E16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="57" t="s">
+      <c r="F16" s="34" t="s">
         <v>73</v>
       </c>
       <c r="G16" t="s">
@@ -4006,7 +2836,7 @@
       <c r="E17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="57" t="s">
+      <c r="F17" s="34" t="s">
         <v>73</v>
       </c>
       <c r="G17" t="s">
@@ -4044,7 +2874,7 @@
       <c r="E18" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="57" t="s">
+      <c r="F18" s="34" t="s">
         <v>74</v>
       </c>
       <c r="G18" t="s">
@@ -4082,7 +2912,7 @@
       <c r="E19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="34" t="s">
         <v>75</v>
       </c>
       <c r="G19" t="s">
@@ -4120,7 +2950,7 @@
       <c r="E20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="57" t="s">
+      <c r="F20" s="34" t="s">
         <v>76</v>
       </c>
       <c r="I20" t="s">
@@ -4155,7 +2985,7 @@
       <c r="E21" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="34" t="s">
         <v>77</v>
       </c>
       <c r="I21" t="s">
@@ -4190,7 +3020,7 @@
       <c r="E22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="57" t="s">
+      <c r="F22" s="34" t="s">
         <v>78</v>
       </c>
       <c r="G22" t="s">
@@ -4228,7 +3058,7 @@
       <c r="E23" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="57" t="s">
+      <c r="F23" s="34" t="s">
         <v>79</v>
       </c>
       <c r="I23" t="s">
@@ -4263,7 +3093,7 @@
       <c r="E24" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="57" t="s">
+      <c r="F24" s="34" t="s">
         <v>80</v>
       </c>
       <c r="I24" t="s">
@@ -4298,7 +3128,7 @@
       <c r="E25" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="57" t="s">
+      <c r="F25" s="34" t="s">
         <v>81</v>
       </c>
       <c r="I25" t="s">
@@ -4333,7 +3163,7 @@
       <c r="E26" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="57" t="s">
+      <c r="F26" s="34" t="s">
         <v>82</v>
       </c>
       <c r="I26" t="s">
@@ -4365,7 +3195,7 @@
       <c r="E27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="57" t="s">
+      <c r="F27" s="34" t="s">
         <v>90</v>
       </c>
       <c r="I27" t="s">
@@ -4416,4 +3246,1213 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="13" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="35.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" customWidth="1"/>
+    <col min="12" max="12" width="35.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+    </row>
+    <row r="2" spans="1:13" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f t="shared" ref="I3:I34" si="0">IF(G3="Unlikely",IF(H3="Minor","1 Very Low",IF(H3="Moderate","2 Low","3 Medium")),
+IF(G3="Moderate",IF(H3="Minor","2 Low",
+IF(H3="Moderate","3 Medium","4 High")),
+IF(G3="Very Likely",IF(H3="Minor","3 Medium",
+IF(H3="Moderate","4 High","5 Very High")))))</f>
+        <v>3 Medium</v>
+      </c>
+      <c r="J3" t="str">
+        <f>IF(G3="Unlikely",IF(H3="Minor","Very Low",IF(H3="Moderate","Low","Medium")),
+IF(G3="Moderate",IF(H3="Minor","Medium",
+IF(H3="Moderate","Medium","High")),
+IF(G3="Very Likely",IF(H3="Minor","Medium",
+IF(H3="Moderate","High","Very High")))))</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2 Low</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2 Low</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2 Low</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>3 Medium</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>4 High</v>
+      </c>
+      <c r="J16" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="84.75" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="84.75" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25">
+        <v>9</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26">
+        <v>9</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="132.75" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:L1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I2:I1048576">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+      <formula>"5 Very High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+      <formula>"4 High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>"3 Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>"2 Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"1 Very Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!$D$3:$D$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>G3:G34</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!$B$3:$B$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>H3:H34</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Work Packages/WP1 Management/Risks/PaNOSC Risk Register.xlsx
+++ b/Work Packages/WP1 Management/Risks/PaNOSC Risk Register.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="3" r:id="rId1"/>
@@ -15,12 +15,15 @@
     <sheet name="Risks during Y1" sheetId="1" r:id="rId6"/>
     <sheet name="Drop down lists" sheetId="2" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Risks!$A$2:$S$27</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="196">
   <si>
     <t>#</t>
   </si>
@@ -624,6 +627,9 @@
   </si>
   <si>
     <t>Listen carefully to feedback from partners and WP leaders</t>
+  </si>
+  <si>
+    <t>Continue Follow-up actions</t>
   </si>
 </sst>
 </file>
@@ -772,7 +778,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -850,11 +856,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -949,6 +975,75 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -958,83 +1053,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1174,6 +1207,9 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
@@ -1211,25 +1247,25 @@
   <tableColumns count="3">
     <tableColumn id="1" name="Rating"/>
     <tableColumn id="2" name="Description"/>
-    <tableColumn id="3" name="Project Objectives impact" dataDxfId="0"/>
+    <tableColumn id="3" name="Project Objectives impact" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:M34" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:M34" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A2:M34"/>
   <tableColumns count="13">
     <tableColumn id="1" name="#"/>
     <tableColumn id="2" name="Risk Name"/>
-    <tableColumn id="3" name="Risk Description" dataDxfId="5"/>
+    <tableColumn id="3" name="Risk Description" dataDxfId="4"/>
     <tableColumn id="4" name="WP involved"/>
     <tableColumn id="5" name="Probability"/>
-    <tableColumn id="8" name="Initial mitigation measure" dataDxfId="4"/>
-    <tableColumn id="15" name="New Probability" dataDxfId="3"/>
-    <tableColumn id="14" name="Impact" dataDxfId="2"/>
-    <tableColumn id="13" name="Assessment" dataDxfId="1">
+    <tableColumn id="8" name="Initial mitigation measure" dataDxfId="3"/>
+    <tableColumn id="15" name="New Probability" dataDxfId="2"/>
+    <tableColumn id="14" name="Impact" dataDxfId="1"/>
+    <tableColumn id="13" name="Assessment" dataDxfId="0">
       <calculatedColumnFormula>IF(G3="Unlikely",IF(H3="Minor","1 Very Low",IF(H3="Moderate","2 Low","3 Medium")),
 IF(G3="Moderate",IF(H3="Minor","2 Low",
 IF(H3="Moderate","3 Medium","4 High")),
@@ -1534,8 +1570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1548,33 +1584,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -1582,86 +1618,86 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
     </row>
     <row r="13" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
     </row>
     <row r="14" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
@@ -1681,16 +1717,16 @@
       <c r="D21" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="51" t="s">
+      <c r="F21" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22">
@@ -1702,14 +1738,14 @@
       <c r="D22" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23">
@@ -1721,14 +1757,14 @@
       <c r="D23" t="s">
         <v>131</v>
       </c>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24">
@@ -1751,18 +1787,18 @@
       <c r="D25" t="s">
         <v>130</v>
       </c>
-      <c r="F25" s="59" t="s">
+      <c r="F25" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="G25" s="58" t="s">
+      <c r="G25" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F26" s="59"/>
+      <c r="F26" s="43"/>
       <c r="G26" s="17" t="s">
         <v>85</v>
       </c>
@@ -1903,16 +1939,16 @@
       <c r="D33" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F33" s="51" t="s">
+      <c r="F33" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34">
@@ -1924,101 +1960,101 @@
       <c r="D34" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="51"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F37" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="G37" s="52" t="s">
+      <c r="G37" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="52" t="s">
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="L37" s="53"/>
+      <c r="L37" s="45"/>
     </row>
     <row r="38" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="16"/>
       <c r="F38" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G38" s="54" t="s">
+      <c r="G38" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="49" t="s">
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="L38" s="50"/>
+      <c r="L38" s="49"/>
     </row>
     <row r="39" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="16"/>
       <c r="F39" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="43" t="s">
+      <c r="G39" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="45" t="s">
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="L39" s="46"/>
+      <c r="L39" s="55"/>
     </row>
     <row r="40" spans="2:13" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F40" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G40" s="47" t="s">
+      <c r="G40" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="49" t="s">
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="L40" s="50"/>
+      <c r="L40" s="49"/>
     </row>
     <row r="41" spans="2:13" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F41" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="G41" s="43" t="s">
+      <c r="G41" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="45" t="s">
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="L41" s="46"/>
+      <c r="L41" s="55"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F44" s="10" t="s">
@@ -2026,18 +2062,18 @@
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F46" s="41" t="s">
+      <c r="F46" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="G46" s="42" t="s">
+      <c r="G46" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
     </row>
     <row r="47" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="F47" s="41"/>
+      <c r="F47" s="50"/>
       <c r="G47" s="26" t="s">
         <v>159</v>
       </c>
@@ -2111,14 +2147,19 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="F33:M35"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="K38:L38"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B18:D18"/>
@@ -2130,19 +2171,14 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F33:M35"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2157,11 +2193,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2184,31 +2220,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-    </row>
-    <row r="2" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+    </row>
+    <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
@@ -2289,6 +2325,9 @@
       <c r="G3" t="s">
         <v>179</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="I3" t="s">
         <v>185</v>
       </c>
@@ -2380,6 +2419,9 @@
       <c r="G5" t="s">
         <v>180</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="I5" t="s">
         <v>185</v>
       </c>
@@ -3182,39 +3224,40 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="168.75" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="1:13" s="64" customFormat="1" ht="168.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="64">
         <v>25</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="64">
         <v>9</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="34" t="s">
+      <c r="F27" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="64">
         <v>9</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="64" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:S27"/>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:S1"/>
@@ -3310,22 +3353,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:13" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4198,21 +4241,21 @@
     <mergeCell ref="G1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="I2:I1048576">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"5 Very High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"4 High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"3 Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"2 Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"1 Very Low"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4269,11 +4312,11 @@
       <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F3" s="10" t="s">
